--- a/academias/Biología - Estadisticos 20211.xlsx
+++ b/academias/Biología - Estadisticos 20211.xlsx
@@ -510,22 +510,25 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>62.5</v>
+      </c>
+      <c r="I2">
+        <v>7.8</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,22 +545,25 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.63</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>34.38</v>
+      </c>
+      <c r="I3">
+        <v>7.8</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,22 +580,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>41.18</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>58.82</v>
+      </c>
+      <c r="I4">
+        <v>8.4</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,22 +615,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>61.9</v>
+      </c>
+      <c r="I5">
+        <v>7.9</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -638,22 +650,25 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I6">
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -670,22 +685,25 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>61.9</v>
+      </c>
+      <c r="I7">
+        <v>7.4</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -702,22 +720,25 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>32.26</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,25 +755,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>42.86</v>
+        <v>51.43</v>
       </c>
       <c r="H9">
-        <v>57.14</v>
+        <v>48.57</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>57.14</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,25 +790,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>74.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H10">
-        <v>25.64</v>
+        <v>12.82</v>
       </c>
       <c r="I10">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +825,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>14.29</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,25 +860,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>30.3</v>
+        <v>48.48</v>
       </c>
       <c r="H12">
-        <v>69.7</v>
+        <v>51.52</v>
       </c>
       <c r="I12">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>69.7</v>
+        <v>51.52</v>
       </c>
     </row>
   </sheetData>
@@ -1330,22 +1351,25 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>62.5</v>
+      </c>
+      <c r="I2">
+        <v>7.8</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1362,22 +1386,25 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.63</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>34.38</v>
+      </c>
+      <c r="I3">
+        <v>7.8</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1394,22 +1421,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>41.18</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>58.82</v>
+      </c>
+      <c r="I4">
+        <v>8.4</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1426,22 +1456,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>61.9</v>
+      </c>
+      <c r="I5">
+        <v>7.9</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1458,22 +1491,25 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I6">
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1490,22 +1526,25 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>61.9</v>
+      </c>
+      <c r="I7">
+        <v>7.4</v>
       </c>
       <c r="J7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1522,22 +1561,25 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>32.26</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1554,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>42.86</v>
+        <v>51.43</v>
       </c>
       <c r="H9">
-        <v>57.14</v>
+        <v>48.57</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>57.14</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1589,25 +1631,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>74.36</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H10">
-        <v>25.64</v>
+        <v>12.82</v>
       </c>
       <c r="I10">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1624,25 +1666,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>14.29</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1659,25 +1701,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>30.3</v>
+        <v>48.48</v>
       </c>
       <c r="H12">
-        <v>69.7</v>
+        <v>51.52</v>
       </c>
       <c r="I12">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>69.7</v>
+        <v>51.52</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Biología - Estadisticos 20211.xlsx
+++ b/academias/Biología - Estadisticos 20211.xlsx
@@ -507,28 +507,28 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>62.5</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>62.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,25 +545,25 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>65.63</v>
+        <v>68.75</v>
       </c>
       <c r="H3">
-        <v>34.38</v>
+        <v>31.25</v>
       </c>
       <c r="I3">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -577,28 +577,28 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>41.18</v>
+        <v>48.57</v>
       </c>
       <c r="H4">
-        <v>58.82</v>
+        <v>51.43</v>
       </c>
       <c r="I4">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>58.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,25 +615,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>61.9</v>
+        <v>42.86</v>
       </c>
       <c r="I5">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,25 +650,25 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>74.29000000000001</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>25.71</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,25 +685,25 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H7">
-        <v>61.9</v>
+        <v>42.86</v>
       </c>
       <c r="I7">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -752,19 +752,19 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>17</v>
       </c>
       <c r="G9">
-        <v>51.43</v>
+        <v>52.78</v>
       </c>
       <c r="H9">
-        <v>48.57</v>
+        <v>47.22</v>
       </c>
       <c r="I9">
         <v>6.8</v>
@@ -773,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>48.57</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -822,28 +822,28 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="H11">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="I11">
         <v>8.1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -944,13 +944,13 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -1008,13 +1008,13 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1168,13 +1168,13 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>100</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -1232,13 +1232,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -1348,28 +1348,28 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>37.5</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>62.5</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>62.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1386,25 +1386,25 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>65.63</v>
+        <v>68.75</v>
       </c>
       <c r="H3">
-        <v>34.38</v>
+        <v>31.25</v>
       </c>
       <c r="I3">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1418,28 +1418,28 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>41.18</v>
+        <v>48.57</v>
       </c>
       <c r="H4">
-        <v>58.82</v>
+        <v>51.43</v>
       </c>
       <c r="I4">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>58.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1456,25 +1456,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>61.9</v>
+        <v>42.86</v>
       </c>
       <c r="I5">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1491,25 +1491,25 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>74.29000000000001</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>25.71</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1526,25 +1526,25 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>38.1</v>
+        <v>57.14</v>
       </c>
       <c r="H7">
-        <v>61.9</v>
+        <v>42.86</v>
       </c>
       <c r="I7">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1593,19 +1593,19 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>17</v>
       </c>
       <c r="G9">
-        <v>51.43</v>
+        <v>52.78</v>
       </c>
       <c r="H9">
-        <v>48.57</v>
+        <v>47.22</v>
       </c>
       <c r="I9">
         <v>6.8</v>
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>48.57</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1663,28 +1663,28 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="H11">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
       <c r="I11">
         <v>8.1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>14.29</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="12" spans="1:11">
